--- a/data/processed/Q4.xlsx
+++ b/data/processed/Q4.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Balance Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Income Statement" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Management Info" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Currency" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="MR 74" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="MR 17&amp;28" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Balance Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Income Statement" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Management Info" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Currency" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MR 74" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MR 17&amp;28" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="COMP09" localSheetId="1">'Balance Sheet'!$A$1:$A$51</definedName>
@@ -56,7 +56,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <charset val="177"/>
@@ -81,6 +81,9 @@
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -335,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -514,6 +517,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
@@ -932,7 +936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,7 +959,7 @@
     <row r="1" ht="14.5" customHeight="1" thickBot="1">
       <c r="A1" s="46" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>PARAMETERS</t>
         </is>
       </c>
       <c r="B1" s="49" t="inlineStr">
@@ -1580,7 +1584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1648,60 +1652,74 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="inlineStr">
-        <is>
-          <t>STANDARD SALES</t>
-        </is>
-      </c>
-      <c r="B2" s="64" t="n"/>
-      <c r="C2" s="64" t="n"/>
-      <c r="D2" s="65" t="n"/>
-      <c r="E2" s="64" t="n"/>
-      <c r="F2" s="65" t="n"/>
-      <c r="G2" s="64" t="n"/>
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>STANDARD SALES CONSUMER</t>
+        </is>
+      </c>
+      <c r="B2" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="64" t="n">
+        <v>495000</v>
+      </c>
+      <c r="D2" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="64" t="n">
+        <v>700000</v>
+      </c>
+      <c r="F2" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="64" t="n">
+        <v>2500000</v>
+      </c>
       <c r="H2" s="65" t="n"/>
-      <c r="I2" s="66" t="n"/>
+      <c r="I2" s="66" t="n">
+        <v>2795000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
         <is>
-          <t>CONSUMER</t>
+          <t>STANDARD SALES INTRA-COMPANY</t>
         </is>
       </c>
       <c r="B3" s="64" t="n">
         <v>0</v>
       </c>
       <c r="C3" s="64" t="n">
-        <v>495000</v>
+        <v>4440000</v>
       </c>
       <c r="D3" s="65" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="64" t="n">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="65" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="64" t="n">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="H3" s="65" t="n"/>
       <c r="I3" s="66" t="n">
-        <v>2795000</v>
+        <v>4440000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="inlineStr">
         <is>
-          <t>INTRA-COMPANY</t>
+          <t>STANDARD SALES INTER-COMPANY</t>
         </is>
       </c>
       <c r="B4" s="64" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="64" t="n">
-        <v>4440000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="65" t="n">
         <v>0</v>
@@ -1717,415 +1735,443 @@
       </c>
       <c r="H4" s="65" t="n"/>
       <c r="I4" s="66" t="n">
-        <v>4440000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="inlineStr">
         <is>
-          <t>INTER-COMPANY</t>
+          <t>STANDARD SALES COMPONENT</t>
         </is>
       </c>
       <c r="B5" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="64" t="n">
-        <v>0</v>
-      </c>
+        <v>808000</v>
+      </c>
+      <c r="C5" s="64" t="n"/>
       <c r="D5" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="E5" s="64" t="n"/>
       <c r="F5" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="G5" s="64" t="n"/>
       <c r="H5" s="65" t="n"/>
       <c r="I5" s="66" t="n">
-        <v>0</v>
+        <v>808000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="inlineStr">
         <is>
-          <t>COMPONENT</t>
+          <t>STANDARD SALES LESS COST OF GOODS</t>
         </is>
       </c>
       <c r="B6" s="64" t="n">
         <v>808000</v>
       </c>
-      <c r="C6" s="64" t="n"/>
+      <c r="C6" s="64" t="n">
+        <v>2852908</v>
+      </c>
       <c r="D6" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="64" t="n"/>
+      <c r="E6" s="64" t="n">
+        <v>320000</v>
+      </c>
       <c r="F6" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="64" t="n"/>
+      <c r="G6" s="64" t="n">
+        <v>600000</v>
+      </c>
       <c r="H6" s="65" t="n"/>
       <c r="I6" s="66" t="n">
-        <v>808000</v>
+        <v>4440908</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="inlineStr">
         <is>
-          <t>LESS COST OF GOODS</t>
+          <t>STANDARD SALES GROSS MARGIN</t>
         </is>
       </c>
       <c r="B7" s="64" t="n">
-        <v>808000</v>
+        <v>0</v>
       </c>
       <c r="C7" s="64" t="n">
-        <v>2852908</v>
+        <v>2082092</v>
       </c>
       <c r="D7" s="65" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="64" t="n">
-        <v>320000</v>
+        <v>380000</v>
       </c>
       <c r="F7" s="65" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="64" t="n">
-        <v>600000</v>
+        <v>1900000</v>
       </c>
       <c r="H7" s="65" t="n"/>
       <c r="I7" s="66" t="n">
-        <v>4440908</v>
+        <v>3602092</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>GROSS MARGIN</t>
+          <t>DELUXE SALES CONSUMER</t>
         </is>
       </c>
       <c r="B8" s="64" t="n">
         <v>0</v>
       </c>
       <c r="C8" s="64" t="n">
-        <v>2082092</v>
+        <v>1980000</v>
       </c>
       <c r="D8" s="65" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="64" t="n">
-        <v>380000</v>
+        <v>370000</v>
       </c>
       <c r="F8" s="65" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="64" t="n">
-        <v>1900000</v>
+        <v>1030000</v>
       </c>
       <c r="H8" s="65" t="n"/>
       <c r="I8" s="66" t="n">
-        <v>3602092</v>
+        <v>3050000</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="inlineStr">
-        <is>
-          <t>DELUXE SALES</t>
-        </is>
-      </c>
-      <c r="B9" s="64" t="n"/>
-      <c r="C9" s="64" t="n"/>
-      <c r="D9" s="65" t="n"/>
-      <c r="E9" s="64" t="n"/>
-      <c r="F9" s="65" t="n"/>
-      <c r="G9" s="64" t="n"/>
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>DELUXE SALES INTRA-COMPANY</t>
+        </is>
+      </c>
+      <c r="B9" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="64" t="n">
+        <v>1680000</v>
+      </c>
+      <c r="D9" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="64" t="n">
+        <v>0</v>
+      </c>
       <c r="H9" s="65" t="n"/>
-      <c r="I9" s="66" t="n"/>
+      <c r="I9" s="66" t="n">
+        <v>1680000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>CONSUMER</t>
+          <t>DELUXE SALES INTER-COMPANY</t>
         </is>
       </c>
       <c r="B10" s="64" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="64" t="n">
-        <v>1980000</v>
+        <v>0</v>
       </c>
       <c r="D10" s="65" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="64" t="n">
-        <v>370000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="65" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="64" t="n">
-        <v>1030000</v>
+        <v>0</v>
       </c>
       <c r="H10" s="65" t="n"/>
       <c r="I10" s="66" t="n">
-        <v>3050000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="inlineStr">
         <is>
-          <t>INTRA-COMPANY</t>
+          <t>DELUXE SALES COMPONENT</t>
         </is>
       </c>
       <c r="B11" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="64" t="n">
-        <v>1680000</v>
-      </c>
+        <v>505000</v>
+      </c>
+      <c r="C11" s="64" t="n"/>
       <c r="D11" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="E11" s="64" t="n"/>
       <c r="F11" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="G11" s="64" t="n"/>
       <c r="H11" s="65" t="n"/>
       <c r="I11" s="66" t="n">
-        <v>1680000</v>
+        <v>505000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
-          <t>INTER-COMPANY</t>
+          <t>DELUXE SALES LESS COST OF GOODS</t>
         </is>
       </c>
       <c r="B12" s="64" t="n">
-        <v>0</v>
+        <v>505000</v>
       </c>
       <c r="C12" s="64" t="n">
-        <v>0</v>
+        <v>2147380</v>
       </c>
       <c r="D12" s="65" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="64" t="n">
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="F12" s="65" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="64" t="n">
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="H12" s="65" t="n"/>
       <c r="I12" s="66" t="n">
-        <v>0</v>
+        <v>3012380</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
         <is>
-          <t>COMPONENT</t>
+          <t>DELUXE SALES GROSS MARGIN</t>
         </is>
       </c>
       <c r="B13" s="64" t="n">
-        <v>505000</v>
-      </c>
-      <c r="C13" s="64" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="64" t="n">
+        <v>1512620</v>
+      </c>
       <c r="D13" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="64" t="n"/>
+      <c r="E13" s="64" t="n">
+        <v>210000</v>
+      </c>
       <c r="F13" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="64" t="n"/>
+      <c r="G13" s="64" t="n">
+        <v>790000</v>
+      </c>
       <c r="H13" s="65" t="n"/>
       <c r="I13" s="66" t="n">
-        <v>505000</v>
+        <v>2222620</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>LESS COST OF GOODS</t>
+          <t>DELUXE SALES TOTAL GROSS MARGIN</t>
         </is>
       </c>
       <c r="B14" s="64" t="n">
-        <v>505000</v>
+        <v>0</v>
       </c>
       <c r="C14" s="64" t="n">
-        <v>2147380</v>
+        <v>3594712</v>
       </c>
       <c r="D14" s="65" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="64" t="n">
-        <v>160000</v>
+        <v>590000</v>
       </c>
       <c r="F14" s="65" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="64" t="n">
-        <v>240000</v>
+        <v>2690000</v>
       </c>
       <c r="H14" s="65" t="n"/>
       <c r="I14" s="66" t="n">
-        <v>3012380</v>
+        <v>5824712</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="inlineStr">
         <is>
-          <t>GROSS MARGIN</t>
+          <t>0OPERATING EXPENSE COMMERCIAL AND ADMIN.</t>
         </is>
       </c>
       <c r="B15" s="64" t="n">
         <v>0</v>
       </c>
       <c r="C15" s="64" t="n">
-        <v>1512620</v>
+        <v>396800</v>
       </c>
       <c r="D15" s="65" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="64" t="n">
-        <v>210000</v>
+        <v>353400</v>
       </c>
       <c r="F15" s="65" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="64" t="n">
-        <v>790000</v>
+        <v>965000</v>
       </c>
       <c r="H15" s="65" t="n"/>
       <c r="I15" s="66" t="n">
-        <v>2222620</v>
+        <v>1409400</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>TOTAL GROSS MARGIN</t>
+          <t>0OPERATING EXPENSE ADVERTISING</t>
         </is>
       </c>
       <c r="B16" s="64" t="n">
         <v>0</v>
       </c>
       <c r="C16" s="64" t="n">
-        <v>3594712</v>
+        <v>20000</v>
       </c>
       <c r="D16" s="65" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="64" t="n">
-        <v>590000</v>
+        <v>20000</v>
       </c>
       <c r="F16" s="65" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="64" t="n">
-        <v>2690000</v>
+        <v>20000</v>
       </c>
       <c r="H16" s="65" t="n"/>
       <c r="I16" s="66" t="n">
-        <v>5824712</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="inlineStr">
-        <is>
-          <t>0OPERATING EXPENSE</t>
-        </is>
-      </c>
-      <c r="B17" s="64" t="n"/>
-      <c r="C17" s="64" t="n"/>
-      <c r="D17" s="65" t="n"/>
-      <c r="E17" s="64" t="n"/>
-      <c r="F17" s="65" t="n"/>
-      <c r="G17" s="64" t="n"/>
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>0OPERATING EXPENSE TRANSFER</t>
+        </is>
+      </c>
+      <c r="B17" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="64" t="n">
+        <v>1253750</v>
+      </c>
+      <c r="D17" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="64" t="n">
+        <v>0</v>
+      </c>
       <c r="H17" s="65" t="n"/>
-      <c r="I17" s="66" t="n"/>
+      <c r="I17" s="66" t="n">
+        <v>1253750</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>COMMERCIAL AND ADMIN.</t>
+          <t>0OPERATING EXPENSE INVENTORY</t>
         </is>
       </c>
       <c r="B18" s="64" t="n">
         <v>0</v>
       </c>
       <c r="C18" s="64" t="n">
-        <v>396800</v>
+        <v>0</v>
       </c>
       <c r="D18" s="65" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="64" t="n">
-        <v>353400</v>
+        <v>0</v>
       </c>
       <c r="F18" s="65" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="64" t="n">
-        <v>965000</v>
+        <v>0</v>
       </c>
       <c r="H18" s="65" t="n"/>
       <c r="I18" s="66" t="n">
-        <v>1409400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
         <is>
-          <t>ADVERTISING</t>
+          <t>0OPERATING EXPENSE SALES EXPEDITING</t>
         </is>
       </c>
       <c r="B19" s="64" t="n">
         <v>0</v>
       </c>
       <c r="C19" s="64" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="D19" s="65" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="64" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="65" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="64" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H19" s="65" t="n"/>
       <c r="I19" s="66" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>TRANSFER</t>
+          <t>0OPERATING EXPENSE METHODS IMPROVEMENT</t>
         </is>
       </c>
       <c r="B20" s="64" t="n">
         <v>0</v>
       </c>
       <c r="C20" s="64" t="n">
-        <v>1253750</v>
+        <v>30000</v>
       </c>
       <c r="D20" s="65" t="n">
         <v>0</v>
@@ -2141,20 +2187,20 @@
       </c>
       <c r="H20" s="65" t="n"/>
       <c r="I20" s="66" t="n">
-        <v>1253750</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
         <is>
-          <t>INVENTORY</t>
+          <t>0OPERATING EXPENSE DEPRECIATION AND FIXED</t>
         </is>
       </c>
       <c r="B21" s="64" t="n">
         <v>0</v>
       </c>
       <c r="C21" s="64" t="n">
-        <v>0</v>
+        <v>405000</v>
       </c>
       <c r="D21" s="65" t="n">
         <v>0</v>
@@ -2170,215 +2216,207 @@
       </c>
       <c r="H21" s="65" t="n"/>
       <c r="I21" s="66" t="n">
-        <v>0</v>
+        <v>405000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>SALES EXPEDITING</t>
+          <t>0OPERATING EXPENSE NET OPERATING EXPENSE</t>
         </is>
       </c>
       <c r="B22" s="64" t="n">
         <v>0</v>
       </c>
       <c r="C22" s="64" t="n">
-        <v>0</v>
+        <v>2105550</v>
       </c>
       <c r="D22" s="65" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="64" t="n">
-        <v>0</v>
+        <v>373400</v>
       </c>
       <c r="F22" s="65" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="64" t="n">
-        <v>0</v>
+        <v>985000</v>
       </c>
       <c r="H22" s="65" t="n"/>
       <c r="I22" s="66" t="n">
-        <v>0</v>
+        <v>3158150</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
         <is>
-          <t>METHODS IMPROVEMENT</t>
+          <t>0OPERATING EXPENSE NET EARNINGS FROM OPER.</t>
         </is>
       </c>
       <c r="B23" s="64" t="n">
         <v>0</v>
       </c>
       <c r="C23" s="64" t="n">
-        <v>30000</v>
+        <v>1489162</v>
       </c>
       <c r="D23" s="65" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="64" t="n">
-        <v>0</v>
+        <v>216600</v>
       </c>
       <c r="F23" s="65" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="64" t="n">
-        <v>0</v>
+        <v>1705000</v>
       </c>
       <c r="H23" s="65" t="n"/>
       <c r="I23" s="66" t="n">
-        <v>30000</v>
+        <v>2666562</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="inlineStr">
         <is>
-          <t>DEPRECIATION AND FIXED</t>
-        </is>
-      </c>
-      <c r="B24" s="64" t="n">
-        <v>0</v>
-      </c>
+          <t>0OPERATING EXPENSE TOTAL NET OPER. EARNINGS</t>
+        </is>
+      </c>
+      <c r="B24" s="64" t="n"/>
       <c r="C24" s="64" t="n">
-        <v>405000</v>
-      </c>
-      <c r="D24" s="65" t="n">
-        <v>0</v>
-      </c>
+        <v>1489162</v>
+      </c>
+      <c r="D24" s="65" t="n"/>
       <c r="E24" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="65" t="n">
-        <v>0</v>
-      </c>
+        <v>216600</v>
+      </c>
+      <c r="F24" s="65" t="n"/>
       <c r="G24" s="64" t="n">
-        <v>0</v>
+        <v>1705000</v>
       </c>
       <c r="H24" s="65" t="n"/>
       <c r="I24" s="66" t="n">
-        <v>405000</v>
+        <v>2666562</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="inlineStr">
         <is>
-          <t>NET OPERATING EXPENSE</t>
-        </is>
-      </c>
-      <c r="B25" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="64" t="n">
-        <v>2105550</v>
-      </c>
-      <c r="D25" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="64" t="n">
-        <v>373400</v>
-      </c>
-      <c r="F25" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="64" t="n">
-        <v>985000</v>
-      </c>
-      <c r="H25" s="65" t="n"/>
+          <t>0NON-OPERATING INCOME LICENSES  CHIP</t>
+        </is>
+      </c>
+      <c r="B25" s="64" t="n"/>
+      <c r="C25" s="64" t="n"/>
+      <c r="D25" s="65" t="n"/>
+      <c r="E25" s="64" t="n"/>
+      <c r="F25" s="65" t="n"/>
+      <c r="G25" s="64" t="n"/>
+      <c r="H25" s="65" t="n">
+        <v>0</v>
+      </c>
       <c r="I25" s="66" t="n">
-        <v>3158150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
         <is>
-          <t>NET EARNINGS FROM OPER.</t>
-        </is>
-      </c>
-      <c r="B26" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="64" t="n">
-        <v>1489162</v>
-      </c>
-      <c r="D26" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="64" t="n">
-        <v>216600</v>
-      </c>
-      <c r="F26" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="64" t="n">
-        <v>1705000</v>
-      </c>
-      <c r="H26" s="65" t="n"/>
+          <t>0NON-OPERATING INCOME LICENSES  PC</t>
+        </is>
+      </c>
+      <c r="B26" s="64" t="n"/>
+      <c r="C26" s="64" t="n"/>
+      <c r="D26" s="65" t="n"/>
+      <c r="E26" s="64" t="n"/>
+      <c r="F26" s="65" t="n"/>
+      <c r="G26" s="64" t="n"/>
+      <c r="H26" s="65" t="n">
+        <v>0</v>
+      </c>
       <c r="I26" s="66" t="n">
-        <v>2666562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="inlineStr">
         <is>
-          <t>TOTAL NET OPER. EARNINGS</t>
+          <t>0NON-OPERATING INCOME INTEREST INCOME</t>
         </is>
       </c>
       <c r="B27" s="64" t="n"/>
       <c r="C27" s="64" t="n">
-        <v>1489162</v>
+        <v>1030</v>
       </c>
       <c r="D27" s="65" t="n"/>
       <c r="E27" s="64" t="n">
-        <v>216600</v>
+        <v>0</v>
       </c>
       <c r="F27" s="65" t="n"/>
       <c r="G27" s="64" t="n">
-        <v>1705000</v>
-      </c>
-      <c r="H27" s="65" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="65" t="n">
+        <v>0</v>
+      </c>
       <c r="I27" s="66" t="n">
-        <v>2666562</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="inlineStr">
-        <is>
-          <t>0NON-OPERATING INCOME</t>
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>0NON-OPERATING INCOME MISCELLANEOUS INCOME</t>
         </is>
       </c>
       <c r="B28" s="64" t="n"/>
-      <c r="C28" s="64" t="n"/>
+      <c r="C28" s="64" t="n">
+        <v>0</v>
+      </c>
       <c r="D28" s="65" t="n"/>
-      <c r="E28" s="64" t="n"/>
+      <c r="E28" s="64" t="n">
+        <v>0</v>
+      </c>
       <c r="F28" s="65" t="n"/>
-      <c r="G28" s="64" t="n"/>
-      <c r="H28" s="65" t="n"/>
-      <c r="I28" s="66" t="n"/>
+      <c r="G28" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="65" t="n">
+        <v>700000</v>
+      </c>
+      <c r="I28" s="66" t="n">
+        <v>700000</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
         <is>
-          <t>LICENSES  CHIP</t>
+          <t>0NON-OPERATING INCOME TOTAL NON-OPER. INCOME</t>
         </is>
       </c>
       <c r="B29" s="64" t="n"/>
-      <c r="C29" s="64" t="n"/>
+      <c r="C29" s="64" t="n">
+        <v>1030</v>
+      </c>
       <c r="D29" s="65" t="n"/>
-      <c r="E29" s="64" t="n"/>
+      <c r="E29" s="64" t="n">
+        <v>0</v>
+      </c>
       <c r="F29" s="65" t="n"/>
-      <c r="G29" s="64" t="n"/>
+      <c r="G29" s="64" t="n">
+        <v>0</v>
+      </c>
       <c r="H29" s="65" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="I29" s="66" t="n">
-        <v>0</v>
+        <v>701030</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
         <is>
-          <t>LICENSES  PC</t>
+          <t>0NON-OPERATING EXPENSE LICENSES  CHIP</t>
         </is>
       </c>
       <c r="B30" s="64" t="n"/>
@@ -2397,82 +2435,64 @@
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
         <is>
-          <t>INTEREST INCOME</t>
+          <t>0NON-OPERATING EXPENSE LICENSES  PC</t>
         </is>
       </c>
       <c r="B31" s="64" t="n"/>
-      <c r="C31" s="64" t="n">
-        <v>1030</v>
-      </c>
+      <c r="C31" s="64" t="n"/>
       <c r="D31" s="65" t="n"/>
-      <c r="E31" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="E31" s="64" t="n"/>
       <c r="F31" s="65" t="n"/>
-      <c r="G31" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="G31" s="64" t="n"/>
       <c r="H31" s="65" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="66" t="n">
-        <v>1030</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="inlineStr">
         <is>
-          <t>MISCELLANEOUS INCOME</t>
+          <t>0NON-OPERATING EXPENSE MARKET RESEARCH</t>
         </is>
       </c>
       <c r="B32" s="64" t="n"/>
-      <c r="C32" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="C32" s="64" t="n"/>
       <c r="D32" s="65" t="n"/>
-      <c r="E32" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="E32" s="64" t="n"/>
       <c r="F32" s="65" t="n"/>
-      <c r="G32" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="G32" s="64" t="n"/>
       <c r="H32" s="65" t="n">
-        <v>700000</v>
+        <v>67000</v>
       </c>
       <c r="I32" s="66" t="n">
-        <v>700000</v>
+        <v>67000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="inlineStr">
         <is>
-          <t>TOTAL NON-OPER. INCOME</t>
+          <t>0NON-OPERATING EXPENSE R &amp; D NEW CHIP</t>
         </is>
       </c>
       <c r="B33" s="64" t="n"/>
-      <c r="C33" s="64" t="n">
-        <v>1030</v>
-      </c>
+      <c r="C33" s="64" t="n"/>
       <c r="D33" s="65" t="n"/>
-      <c r="E33" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="E33" s="64" t="n"/>
       <c r="F33" s="65" t="n"/>
-      <c r="G33" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="G33" s="64" t="n"/>
       <c r="H33" s="65" t="n">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="I33" s="66" t="n">
-        <v>701030</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="inlineStr">
-        <is>
-          <t>0NON-OPERATING EXPENSE</t>
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>0NON-OPERATING EXPENSE R &amp; D NEW PC</t>
         </is>
       </c>
       <c r="B34" s="64" t="n"/>
@@ -2481,97 +2501,131 @@
       <c r="E34" s="64" t="n"/>
       <c r="F34" s="65" t="n"/>
       <c r="G34" s="64" t="n"/>
-      <c r="H34" s="65" t="n"/>
-      <c r="I34" s="66" t="n"/>
+      <c r="H34" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
         <is>
-          <t>LICENSES  CHIP</t>
+          <t>0NON-OPERATING EXPENSE INTEREST EXPENSE</t>
         </is>
       </c>
       <c r="B35" s="64" t="n"/>
-      <c r="C35" s="64" t="n"/>
+      <c r="C35" s="64" t="n">
+        <v>50162</v>
+      </c>
       <c r="D35" s="65" t="n"/>
-      <c r="E35" s="64" t="n"/>
+      <c r="E35" s="64" t="n">
+        <v>28266</v>
+      </c>
       <c r="F35" s="65" t="n"/>
-      <c r="G35" s="64" t="n"/>
+      <c r="G35" s="64" t="n">
+        <v>68261</v>
+      </c>
       <c r="H35" s="65" t="n">
-        <v>0</v>
+        <v>434596</v>
       </c>
       <c r="I35" s="66" t="n">
-        <v>0</v>
+        <v>561287</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>LICENSES  PC</t>
+          <t>0NON-OPERATING EXPENSE MISCELLANEOUS EXPENSE</t>
         </is>
       </c>
       <c r="B36" s="64" t="n"/>
-      <c r="C36" s="64" t="n"/>
+      <c r="C36" s="64" t="n">
+        <v>700000</v>
+      </c>
       <c r="D36" s="65" t="n"/>
-      <c r="E36" s="64" t="n"/>
+      <c r="E36" s="64" t="n">
+        <v>0</v>
+      </c>
       <c r="F36" s="65" t="n"/>
-      <c r="G36" s="64" t="n"/>
+      <c r="G36" s="64" t="n">
+        <v>0</v>
+      </c>
       <c r="H36" s="65" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="I36" s="66" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="inlineStr">
         <is>
-          <t>MARKET RESEARCH</t>
+          <t>0NON-OPERATING EXPENSE COST OF EXCHANGE</t>
         </is>
       </c>
       <c r="B37" s="64" t="n"/>
-      <c r="C37" s="64" t="n"/>
+      <c r="C37" s="64" t="n">
+        <v>0</v>
+      </c>
       <c r="D37" s="65" t="n"/>
-      <c r="E37" s="64" t="n"/>
+      <c r="E37" s="64" t="n">
+        <v>2700</v>
+      </c>
       <c r="F37" s="65" t="n"/>
-      <c r="G37" s="64" t="n"/>
+      <c r="G37" s="64" t="n">
+        <v>4800</v>
+      </c>
       <c r="H37" s="65" t="n">
-        <v>67000</v>
+        <v>5708</v>
       </c>
       <c r="I37" s="66" t="n">
-        <v>67000</v>
+        <v>12158</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="inlineStr">
         <is>
-          <t>R &amp; D NEW CHIP</t>
+          <t>0NON-OPERATING EXPENSE TOTAL NON-OPER. EXPENSE</t>
         </is>
       </c>
       <c r="B38" s="64" t="n"/>
-      <c r="C38" s="64" t="n"/>
+      <c r="C38" s="64" t="n">
+        <v>750162</v>
+      </c>
       <c r="D38" s="65" t="n"/>
-      <c r="E38" s="64" t="n"/>
+      <c r="E38" s="64" t="n">
+        <v>30966</v>
+      </c>
       <c r="F38" s="65" t="n"/>
-      <c r="G38" s="64" t="n"/>
+      <c r="G38" s="64" t="n">
+        <v>73061</v>
+      </c>
       <c r="H38" s="65" t="n">
-        <v>0</v>
+        <v>807304</v>
       </c>
       <c r="I38" s="66" t="n">
-        <v>0</v>
+        <v>1640445</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="inlineStr">
-        <is>
-          <t>R &amp; D NEW PC</t>
+      <c r="A39" s="9" t="inlineStr">
+        <is>
+          <t>0REALIZED   GAIN (LOSS)</t>
         </is>
       </c>
       <c r="B39" s="64" t="n"/>
-      <c r="C39" s="64" t="n"/>
+      <c r="C39" s="64" t="n">
+        <v>0</v>
+      </c>
       <c r="D39" s="65" t="n"/>
-      <c r="E39" s="64" t="n"/>
+      <c r="E39" s="64" t="n">
+        <v>0</v>
+      </c>
       <c r="F39" s="65" t="n"/>
-      <c r="G39" s="64" t="n"/>
+      <c r="G39" s="64" t="n">
+        <v>0</v>
+      </c>
       <c r="H39" s="65" t="n">
         <v>0</v>
       </c>
@@ -2582,57 +2636,57 @@
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
         <is>
-          <t>INTEREST EXPENSE</t>
+          <t>GROSS EARNINGS</t>
         </is>
       </c>
       <c r="B40" s="64" t="n"/>
       <c r="C40" s="64" t="n">
-        <v>50162</v>
+        <v>740029</v>
       </c>
       <c r="D40" s="65" t="n"/>
       <c r="E40" s="64" t="n">
-        <v>28266</v>
+        <v>185634</v>
       </c>
       <c r="F40" s="65" t="n"/>
       <c r="G40" s="64" t="n">
-        <v>68261</v>
+        <v>1631939</v>
       </c>
       <c r="H40" s="65" t="n">
-        <v>434596</v>
+        <v>-107304</v>
       </c>
       <c r="I40" s="66" t="n">
-        <v>561287</v>
+        <v>1727146</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="8" t="inlineStr">
         <is>
-          <t>MISCELLANEOUS EXPENSE</t>
+          <t>INCOME TAX</t>
         </is>
       </c>
       <c r="B41" s="64" t="n"/>
       <c r="C41" s="64" t="n">
-        <v>700000</v>
+        <v>207090</v>
       </c>
       <c r="D41" s="65" t="n"/>
       <c r="E41" s="64" t="n">
-        <v>0</v>
+        <v>74254</v>
       </c>
       <c r="F41" s="65" t="n"/>
       <c r="G41" s="64" t="n">
-        <v>0</v>
+        <v>489582</v>
       </c>
       <c r="H41" s="65" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="I41" s="66" t="n">
-        <v>1000000</v>
+        <v>563261</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="inlineStr">
         <is>
-          <t>COST OF EXCHANGE</t>
+          <t>CAPITAL TRANSFER TAX</t>
         </is>
       </c>
       <c r="B42" s="64" t="n"/>
@@ -2641,62 +2695,56 @@
       </c>
       <c r="D42" s="65" t="n"/>
       <c r="E42" s="64" t="n">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="F42" s="65" t="n"/>
       <c r="G42" s="64" t="n">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="H42" s="65" t="n">
-        <v>5708</v>
+        <v>0</v>
       </c>
       <c r="I42" s="66" t="n">
-        <v>12158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="inlineStr">
         <is>
-          <t>TOTAL NON-OPER. EXPENSE</t>
+          <t>NET EARNINGS</t>
         </is>
       </c>
       <c r="B43" s="64" t="n"/>
       <c r="C43" s="64" t="n">
-        <v>750162</v>
+        <v>532939</v>
       </c>
       <c r="D43" s="65" t="n"/>
       <c r="E43" s="64" t="n">
-        <v>30966</v>
+        <v>111381</v>
       </c>
       <c r="F43" s="65" t="n"/>
       <c r="G43" s="64" t="n">
-        <v>73061</v>
+        <v>1142357</v>
       </c>
       <c r="H43" s="65" t="n">
-        <v>807304</v>
+        <v>-107304</v>
       </c>
       <c r="I43" s="66" t="n">
-        <v>1640445</v>
+        <v>1163885</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="9" t="inlineStr">
-        <is>
-          <t>0REALIZED   GAIN (LOSS)</t>
+      <c r="A44" s="8" t="inlineStr">
+        <is>
+          <t>DIVIDENDS</t>
         </is>
       </c>
       <c r="B44" s="64" t="n"/>
-      <c r="C44" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="C44" s="64" t="n"/>
       <c r="D44" s="65" t="n"/>
-      <c r="E44" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="E44" s="64" t="n"/>
       <c r="F44" s="65" t="n"/>
-      <c r="G44" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="G44" s="64" t="n"/>
       <c r="H44" s="65" t="n">
         <v>0</v>
       </c>
@@ -2705,146 +2753,27 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="inlineStr">
-        <is>
-          <t>GROSS EARNINGS</t>
-        </is>
-      </c>
-      <c r="B45" s="64" t="n"/>
-      <c r="C45" s="64" t="n">
-        <v>740029</v>
-      </c>
-      <c r="D45" s="65" t="n"/>
-      <c r="E45" s="64" t="n">
-        <v>185634</v>
-      </c>
-      <c r="F45" s="65" t="n"/>
-      <c r="G45" s="64" t="n">
-        <v>1631939</v>
-      </c>
-      <c r="H45" s="65" t="n">
+      <c r="A45" s="41" t="inlineStr">
+        <is>
+          <t>TO RETAINED EARNINGS</t>
+        </is>
+      </c>
+      <c r="B45" s="67" t="n"/>
+      <c r="C45" s="67" t="n">
+        <v>532939</v>
+      </c>
+      <c r="D45" s="68" t="n"/>
+      <c r="E45" s="67" t="n">
+        <v>111381</v>
+      </c>
+      <c r="F45" s="68" t="n"/>
+      <c r="G45" s="67" t="n">
+        <v>1142357</v>
+      </c>
+      <c r="H45" s="68" t="n">
         <v>-107304</v>
       </c>
-      <c r="I45" s="66" t="n">
-        <v>1727146</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="8" t="inlineStr">
-        <is>
-          <t>INCOME TAX</t>
-        </is>
-      </c>
-      <c r="B46" s="64" t="n"/>
-      <c r="C46" s="64" t="n">
-        <v>207090</v>
-      </c>
-      <c r="D46" s="65" t="n"/>
-      <c r="E46" s="64" t="n">
-        <v>74254</v>
-      </c>
-      <c r="F46" s="65" t="n"/>
-      <c r="G46" s="64" t="n">
-        <v>489582</v>
-      </c>
-      <c r="H46" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="66" t="n">
-        <v>563261</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="8" t="inlineStr">
-        <is>
-          <t>CAPITAL TRANSFER TAX</t>
-        </is>
-      </c>
-      <c r="B47" s="64" t="n"/>
-      <c r="C47" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="65" t="n"/>
-      <c r="E47" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="65" t="n"/>
-      <c r="G47" s="64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="8" t="inlineStr">
-        <is>
-          <t>NET EARNINGS</t>
-        </is>
-      </c>
-      <c r="B48" s="64" t="n"/>
-      <c r="C48" s="64" t="n">
-        <v>532939</v>
-      </c>
-      <c r="D48" s="65" t="n"/>
-      <c r="E48" s="64" t="n">
-        <v>111381</v>
-      </c>
-      <c r="F48" s="65" t="n"/>
-      <c r="G48" s="64" t="n">
-        <v>1142357</v>
-      </c>
-      <c r="H48" s="65" t="n">
-        <v>-107304</v>
-      </c>
-      <c r="I48" s="66" t="n">
-        <v>1163885</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="8" t="inlineStr">
-        <is>
-          <t>DIVIDENDS</t>
-        </is>
-      </c>
-      <c r="B49" s="64" t="n"/>
-      <c r="C49" s="64" t="n"/>
-      <c r="D49" s="65" t="n"/>
-      <c r="E49" s="64" t="n"/>
-      <c r="F49" s="65" t="n"/>
-      <c r="G49" s="64" t="n"/>
-      <c r="H49" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="41" t="inlineStr">
-        <is>
-          <t>TO RETAINED EARNINGS</t>
-        </is>
-      </c>
-      <c r="B50" s="67" t="n"/>
-      <c r="C50" s="67" t="n">
-        <v>532939</v>
-      </c>
-      <c r="D50" s="68" t="n"/>
-      <c r="E50" s="67" t="n">
-        <v>111381</v>
-      </c>
-      <c r="F50" s="68" t="n"/>
-      <c r="G50" s="67" t="n">
-        <v>1142357</v>
-      </c>
-      <c r="H50" s="68" t="n">
-        <v>-107304</v>
-      </c>
-      <c r="I50" s="69" t="n">
+      <c r="I45" s="69" t="n">
         <v>1163885</v>
       </c>
     </row>
@@ -2860,7 +2789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,25 +2862,37 @@
       </c>
     </row>
     <row r="2" ht="14.5" customHeight="1" thickBot="1">
-      <c r="A2" s="9" t="inlineStr">
-        <is>
-          <t>STANDARD SALES UNITS</t>
-        </is>
-      </c>
-      <c r="B2" s="55" t="n"/>
-      <c r="C2" s="55" t="n"/>
-      <c r="D2" s="55" t="n"/>
-      <c r="E2" s="56" t="n"/>
-      <c r="F2" s="55" t="n"/>
-      <c r="G2" s="55" t="n"/>
-      <c r="H2" s="56" t="n"/>
-      <c r="I2" s="55" t="n"/>
-      <c r="J2" s="58" t="n"/>
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>STANDARD SALES UNITS CONSUMER</t>
+        </is>
+      </c>
+      <c r="B2" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="34" t="n"/>
+      <c r="D2" s="34" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E2" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="34" t="n"/>
+      <c r="G2" s="34" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H2" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="34" t="n"/>
+      <c r="J2" s="38" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
         <is>
-          <t>CONSUMER</t>
+          <t>STANDARD SALES UNITS INTRA-COMPANY</t>
         </is>
       </c>
       <c r="B3" s="34" t="n">
@@ -2959,27 +2900,27 @@
       </c>
       <c r="C3" s="34" t="n"/>
       <c r="D3" s="34" t="n">
-        <v>3000</v>
+        <v>37000</v>
       </c>
       <c r="E3" s="35" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="34" t="n"/>
       <c r="G3" s="34" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H3" s="35" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="34" t="n"/>
       <c r="J3" s="38" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="inlineStr">
         <is>
-          <t>INTRA-COMPANY</t>
+          <t>STANDARD SALES UNITS INTER-COMPANY</t>
         </is>
       </c>
       <c r="B4" s="34" t="n">
@@ -2987,7 +2928,7 @@
       </c>
       <c r="C4" s="34" t="n"/>
       <c r="D4" s="34" t="n">
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="35" t="n">
         <v>0</v>
@@ -3007,73 +2948,85 @@
     <row r="5">
       <c r="A5" s="8" t="inlineStr">
         <is>
-          <t>INTER-COMPANY</t>
+          <t>STANDARD SALES UNITS COMPONENT</t>
         </is>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="C5" s="34" t="n"/>
-      <c r="D5" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="D5" s="34" t="n"/>
       <c r="E5" s="35" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="34" t="n"/>
-      <c r="G5" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="G5" s="34" t="n"/>
       <c r="H5" s="35" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="34" t="n"/>
-      <c r="J5" s="38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" s="38" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="inlineStr">
         <is>
-          <t>COMPONENT</t>
+          <t>DELUXE   SALES UNITS CONSUMER</t>
         </is>
       </c>
       <c r="B6" s="34" t="n">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="C6" s="34" t="n"/>
-      <c r="D6" s="34" t="n"/>
+      <c r="D6" s="34" t="n">
+        <v>11000</v>
+      </c>
       <c r="E6" s="35" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="34" t="n"/>
-      <c r="G6" s="34" t="n"/>
+      <c r="G6" s="34" t="n">
+        <v>2000</v>
+      </c>
       <c r="H6" s="35" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="34" t="n"/>
-      <c r="J6" s="38" t="n"/>
+      <c r="J6" s="38" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="inlineStr">
-        <is>
-          <t>DELUXE   SALES UNITS</t>
-        </is>
-      </c>
-      <c r="B7" s="34" t="n"/>
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>DELUXE   SALES UNITS INTRA-COMPANY</t>
+        </is>
+      </c>
+      <c r="B7" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="C7" s="34" t="n"/>
-      <c r="D7" s="34" t="n"/>
-      <c r="E7" s="35" t="n"/>
+      <c r="D7" s="34" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E7" s="35" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="34" t="n"/>
-      <c r="G7" s="34" t="n"/>
-      <c r="H7" s="35" t="n"/>
+      <c r="G7" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="35" t="n">
+        <v>0</v>
+      </c>
       <c r="I7" s="34" t="n"/>
-      <c r="J7" s="38" t="n"/>
+      <c r="J7" s="38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>CONSUMER</t>
+          <t>DELUXE   SALES UNITS INTER-COMPANY</t>
         </is>
       </c>
       <c r="B8" s="34" t="n">
@@ -3081,75 +3034,75 @@
       </c>
       <c r="C8" s="34" t="n"/>
       <c r="D8" s="34" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="E8" s="35" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="34" t="n"/>
       <c r="G8" s="34" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H8" s="35" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="34" t="n"/>
       <c r="J8" s="38" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>INTRA-COMPANY</t>
+          <t>DELUXE   SALES UNITS COMPONENT</t>
         </is>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="C9" s="34" t="n"/>
-      <c r="D9" s="34" t="n">
-        <v>14000</v>
-      </c>
+      <c r="D9" s="34" t="n"/>
       <c r="E9" s="35" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="34" t="n"/>
-      <c r="G9" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="G9" s="34" t="n"/>
       <c r="H9" s="35" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="34" t="n"/>
-      <c r="J9" s="38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" s="38" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>INTER-COMPANY</t>
+          <t>MANUFACTURING COST ANALYSIS PL(1) STANDARD COST</t>
         </is>
       </c>
       <c r="B10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="34" t="n"/>
+      <c r="C10" s="34" t="n">
+        <v>404000</v>
+      </c>
       <c r="D10" s="34" t="n">
-        <v>0</v>
+        <v>1270111</v>
       </c>
       <c r="E10" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="34" t="n"/>
+      <c r="F10" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="G10" s="34" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="34" t="n"/>
+      <c r="I10" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="J10" s="38" t="n">
         <v>0</v>
       </c>
@@ -3157,71 +3110,89 @@
     <row r="11">
       <c r="A11" s="8" t="inlineStr">
         <is>
-          <t>COMPONENT</t>
+          <t>MANUFACTURING COST ANALYSIS UNITS</t>
         </is>
       </c>
       <c r="B11" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="34" t="n"/>
+      <c r="D11" s="34" t="n">
         <v>20000</v>
       </c>
-      <c r="C11" s="34" t="n"/>
-      <c r="D11" s="34" t="n"/>
       <c r="E11" s="35" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="34" t="n"/>
-      <c r="G11" s="34" t="n"/>
+      <c r="G11" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="H11" s="35" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="34" t="n"/>
-      <c r="J11" s="38" t="n"/>
+      <c r="J11" s="38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>MANUFACTURING COST ANALYSIS</t>
-        </is>
-      </c>
-      <c r="B12" s="34" t="n"/>
-      <c r="C12" s="34" t="n"/>
-      <c r="D12" s="34" t="n"/>
-      <c r="E12" s="35" t="n"/>
-      <c r="F12" s="34" t="n"/>
-      <c r="G12" s="34" t="n"/>
-      <c r="H12" s="35" t="n"/>
-      <c r="I12" s="34" t="n"/>
-      <c r="J12" s="38" t="n"/>
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>MANUFACTURING COST ANALYSIS DELUXE   COST</t>
+        </is>
+      </c>
+      <c r="B12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
         <is>
-          <t>PL(1) STANDARD COST</t>
+          <t>MANUFACTURING COST ANALYSIS UNITS</t>
         </is>
       </c>
       <c r="B13" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="34" t="n">
-        <v>404000</v>
-      </c>
+      <c r="C13" s="34" t="n"/>
       <c r="D13" s="34" t="n">
-        <v>1270111</v>
+        <v>0</v>
       </c>
       <c r="E13" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" s="34" t="n"/>
       <c r="G13" s="34" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" s="34" t="n"/>
       <c r="J13" s="38" t="n">
         <v>0</v>
       </c>
@@ -3229,27 +3200,33 @@
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>UNITS</t>
+          <t>MANUFACTURING COST ANALYSIS PL(2) STANDARD COST</t>
         </is>
       </c>
       <c r="B14" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="34" t="n"/>
+      <c r="C14" s="34" t="n">
+        <v>404000</v>
+      </c>
       <c r="D14" s="34" t="n">
-        <v>20000</v>
+        <v>1270111</v>
       </c>
       <c r="E14" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="34" t="n"/>
+      <c r="F14" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="G14" s="34" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="34" t="n"/>
+      <c r="I14" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" s="38" t="n">
         <v>0</v>
       </c>
@@ -3257,33 +3234,27 @@
     <row r="15">
       <c r="A15" s="8" t="inlineStr">
         <is>
-          <t>DELUXE   COST</t>
+          <t>MANUFACTURING COST ANALYSIS UNITS</t>
         </is>
       </c>
       <c r="B15" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="C15" s="34" t="n"/>
       <c r="D15" s="34" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E15" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" s="34" t="n"/>
       <c r="G15" s="34" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" s="34" t="n"/>
       <c r="J15" s="38" t="n">
         <v>0</v>
       </c>
@@ -3291,27 +3262,33 @@
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>UNITS</t>
+          <t>MANUFACTURING COST ANALYSIS DELUXE   COST</t>
         </is>
       </c>
       <c r="B16" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C16" s="34" t="n"/>
+      <c r="C16" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="D16" s="34" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="34" t="n"/>
+      <c r="F16" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="G16" s="34" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="34" t="n"/>
+      <c r="I16" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" s="38" t="n">
         <v>0</v>
       </c>
@@ -3319,33 +3296,27 @@
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
         <is>
-          <t>PL(2) STANDARD COST</t>
+          <t>MANUFACTURING COST ANALYSIS UNITS</t>
         </is>
       </c>
       <c r="B17" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="34" t="n">
-        <v>404000</v>
-      </c>
+      <c r="C17" s="34" t="n"/>
       <c r="D17" s="34" t="n">
-        <v>1270111</v>
+        <v>0</v>
       </c>
       <c r="E17" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="F17" s="34" t="n"/>
       <c r="G17" s="34" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" s="34" t="n"/>
       <c r="J17" s="38" t="n">
         <v>0</v>
       </c>
@@ -3353,27 +3324,33 @@
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>UNITS</t>
+          <t>MANUFACTURING COST ANALYSIS PL(3) STANDARD COST</t>
         </is>
       </c>
       <c r="B18" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="34" t="n"/>
+      <c r="C18" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="D18" s="34" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E18" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="34" t="n"/>
+      <c r="F18" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="G18" s="34" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="34" t="n"/>
+      <c r="I18" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" s="38" t="n">
         <v>0</v>
       </c>
@@ -3381,33 +3358,27 @@
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
         <is>
-          <t>DELUXE   COST</t>
+          <t>MANUFACTURING COST ANALYSIS UNITS</t>
         </is>
       </c>
       <c r="B19" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="C19" s="34" t="n"/>
       <c r="D19" s="34" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="F19" s="34" t="n"/>
       <c r="G19" s="34" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" s="34" t="n"/>
       <c r="J19" s="38" t="n">
         <v>0</v>
       </c>
@@ -3415,27 +3386,33 @@
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>UNITS</t>
+          <t>MANUFACTURING COST ANALYSIS DELUXE   COST</t>
         </is>
       </c>
       <c r="B20" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="34" t="n"/>
+      <c r="C20" s="34" t="n">
+        <v>505000</v>
+      </c>
       <c r="D20" s="34" t="n">
-        <v>0</v>
+        <v>1546531</v>
       </c>
       <c r="E20" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="34" t="n"/>
+      <c r="F20" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="G20" s="34" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="34" t="n"/>
+      <c r="I20" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" s="38" t="n">
         <v>0</v>
       </c>
@@ -3443,33 +3420,27 @@
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
         <is>
-          <t>PL(3) STANDARD COST</t>
+          <t>MANUFACTURING COST ANALYSIS UNITS</t>
         </is>
       </c>
       <c r="B21" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C21" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="C21" s="34" t="n"/>
       <c r="D21" s="34" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E21" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="F21" s="34" t="n"/>
       <c r="G21" s="34" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" s="34" t="n"/>
       <c r="J21" s="38" t="n">
         <v>0</v>
       </c>
@@ -3477,7 +3448,7 @@
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>UNITS</t>
+          <t>MANUFACTURING COST ANALYSIS STANDARD GRADE</t>
         </is>
       </c>
       <c r="B22" s="34" t="n">
@@ -3505,33 +3476,27 @@
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
         <is>
-          <t>DELUXE   COST</t>
+          <t>MANUFACTURING COST ANALYSIS DELUXE   GRADE</t>
         </is>
       </c>
       <c r="B23" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C23" s="34" t="n">
-        <v>505000</v>
-      </c>
+      <c r="C23" s="34" t="n"/>
       <c r="D23" s="34" t="n">
-        <v>1546531</v>
+        <v>1</v>
       </c>
       <c r="E23" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" s="34" t="n"/>
       <c r="G23" s="34" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" s="34" t="n"/>
       <c r="J23" s="38" t="n">
         <v>0</v>
       </c>
@@ -3539,7 +3504,7 @@
     <row r="24">
       <c r="A24" s="8" t="inlineStr">
         <is>
-          <t>UNITS</t>
+          <t>INTRA-CO. PURCHASES COST</t>
         </is>
       </c>
       <c r="B24" s="34" t="n">
@@ -3547,27 +3512,27 @@
       </c>
       <c r="C24" s="34" t="n"/>
       <c r="D24" s="34" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E24" s="35" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="34" t="n"/>
       <c r="G24" s="34" t="n">
-        <v>0</v>
+        <v>2640000</v>
       </c>
       <c r="H24" s="35" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="34" t="n"/>
       <c r="J24" s="38" t="n">
-        <v>0</v>
+        <v>4320000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="inlineStr">
         <is>
-          <t>STANDARD GRADE</t>
+          <t>INTRA-CO. PURCHASES UNITS</t>
         </is>
       </c>
       <c r="B25" s="34" t="n">
@@ -3582,28 +3547,28 @@
       </c>
       <c r="F25" s="34" t="n"/>
       <c r="G25" s="34" t="n">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="H25" s="35" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="34" t="n"/>
       <c r="J25" s="38" t="n">
-        <v>0</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
         <is>
-          <t>DELUXE   GRADE</t>
+          <t>INTER-CO. PURCHASES COST</t>
         </is>
       </c>
       <c r="B26" s="34" t="n">
-        <v>0</v>
+        <v>1313000</v>
       </c>
       <c r="C26" s="34" t="n"/>
       <c r="D26" s="34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="35" t="n">
         <v>0</v>
@@ -3621,129 +3586,135 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="inlineStr">
-        <is>
-          <t>INTRA-CO. PURCHASES</t>
-        </is>
-      </c>
-      <c r="B27" s="34" t="n"/>
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>INTER-CO. PURCHASES UNITS</t>
+        </is>
+      </c>
+      <c r="B27" s="34" t="n">
+        <v>60000</v>
+      </c>
       <c r="C27" s="34" t="n"/>
-      <c r="D27" s="34" t="n"/>
-      <c r="E27" s="35" t="n"/>
+      <c r="D27" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="35" t="n">
+        <v>0</v>
+      </c>
       <c r="F27" s="34" t="n"/>
-      <c r="G27" s="34" t="n"/>
-      <c r="H27" s="35" t="n"/>
+      <c r="G27" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="35" t="n">
+        <v>0</v>
+      </c>
       <c r="I27" s="34" t="n"/>
-      <c r="J27" s="38" t="n"/>
+      <c r="J27" s="38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>0COMPONENTS EXPEDITED COSTS</t>
         </is>
       </c>
       <c r="B28" s="34" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="34" t="n"/>
-      <c r="D28" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="D28" s="34" t="n"/>
       <c r="E28" s="35" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="34" t="n"/>
-      <c r="G28" s="34" t="n">
-        <v>2640000</v>
-      </c>
+      <c r="G28" s="34" t="n"/>
       <c r="H28" s="35" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="34" t="n"/>
-      <c r="J28" s="38" t="n">
-        <v>4320000</v>
-      </c>
+      <c r="J28" s="38" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
         <is>
-          <t>UNITS</t>
+          <t>0COMPONENTS EXPEDITED UNITS</t>
         </is>
       </c>
       <c r="B29" s="34" t="n">
         <v>0</v>
       </c>
       <c r="C29" s="34" t="n"/>
-      <c r="D29" s="34" t="n">
-        <v>0</v>
-      </c>
+      <c r="D29" s="34" t="n"/>
       <c r="E29" s="35" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="34" t="n"/>
-      <c r="G29" s="34" t="n">
-        <v>33000</v>
-      </c>
+      <c r="G29" s="34" t="n"/>
       <c r="H29" s="35" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="34" t="n"/>
-      <c r="J29" s="38" t="n">
-        <v>18000</v>
-      </c>
+      <c r="J29" s="38" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="inlineStr">
-        <is>
-          <t>INTER-CO. PURCHASES</t>
-        </is>
-      </c>
-      <c r="B30" s="34" t="n"/>
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>0COMPONENTS EXPEDITED GRADE</t>
+        </is>
+      </c>
+      <c r="B30" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="C30" s="34" t="n"/>
       <c r="D30" s="34" t="n"/>
-      <c r="E30" s="35" t="n"/>
+      <c r="E30" s="35" t="n">
+        <v>0</v>
+      </c>
       <c r="F30" s="34" t="n"/>
       <c r="G30" s="34" t="n"/>
-      <c r="H30" s="35" t="n"/>
+      <c r="H30" s="35" t="n">
+        <v>0</v>
+      </c>
       <c r="I30" s="34" t="n"/>
       <c r="J30" s="38" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>ENDING INVENTORY STANDARD UNITS</t>
         </is>
       </c>
       <c r="B31" s="34" t="n">
-        <v>1313000</v>
+        <v>0</v>
       </c>
       <c r="C31" s="34" t="n"/>
       <c r="D31" s="34" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="E31" s="35" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="34" t="n"/>
       <c r="G31" s="34" t="n">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="H31" s="35" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="34" t="n"/>
       <c r="J31" s="38" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="inlineStr">
         <is>
-          <t>UNITS</t>
+          <t>ENDING INVENTORY GRADE</t>
         </is>
       </c>
       <c r="B32" s="34" t="n">
-        <v>60000</v>
+        <v>1</v>
       </c>
       <c r="C32" s="34" t="n"/>
       <c r="D32" s="34" t="n">
@@ -3765,338 +3736,184 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="inlineStr">
-        <is>
-          <t>0COMPONENTS EXPEDITED</t>
-        </is>
-      </c>
-      <c r="B33" s="34" t="n"/>
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>ENDING INVENTORY DELUXE   UNITS</t>
+        </is>
+      </c>
+      <c r="B33" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="C33" s="34" t="n"/>
-      <c r="D33" s="34" t="n"/>
-      <c r="E33" s="35" t="n"/>
+      <c r="D33" s="34" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E33" s="35" t="n">
+        <v>0</v>
+      </c>
       <c r="F33" s="34" t="n"/>
-      <c r="G33" s="34" t="n"/>
-      <c r="H33" s="35" t="n"/>
+      <c r="G33" s="34" t="n">
+        <v>9000</v>
+      </c>
+      <c r="H33" s="35" t="n">
+        <v>0</v>
+      </c>
       <c r="I33" s="34" t="n"/>
-      <c r="J33" s="38" t="n"/>
+      <c r="J33" s="38" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>COSTS</t>
-        </is>
-      </c>
-      <c r="B34" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="34" t="n"/>
-      <c r="D34" s="34" t="n"/>
-      <c r="E34" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="34" t="n"/>
-      <c r="G34" s="34" t="n"/>
-      <c r="H34" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="34" t="n"/>
-      <c r="J34" s="38" t="n"/>
+          <t>ENDING INVENTORY GRADE</t>
+        </is>
+      </c>
+      <c r="B34" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="55" t="n"/>
+      <c r="D34" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="55" t="n"/>
+      <c r="G34" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="55" t="n"/>
+      <c r="J34" s="58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>UNITS</t>
-        </is>
-      </c>
-      <c r="B35" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="34" t="n"/>
-      <c r="D35" s="34" t="n"/>
-      <c r="E35" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="34" t="n"/>
-      <c r="G35" s="34" t="n"/>
-      <c r="H35" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="34" t="n"/>
-      <c r="J35" s="38" t="n"/>
+      <c r="A35" s="9" t="inlineStr">
+        <is>
+          <t>0PLANTS BUILT AND BUILDING</t>
+        </is>
+      </c>
+      <c r="B35" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="55" t="n"/>
+      <c r="D35" s="55" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="55" t="n"/>
+      <c r="G35" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="55" t="n"/>
+      <c r="J35" s="58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="inlineStr">
-        <is>
-          <t>GRADE</t>
-        </is>
-      </c>
-      <c r="B36" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="34" t="n"/>
-      <c r="D36" s="34" t="n"/>
-      <c r="E36" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="34" t="n"/>
-      <c r="G36" s="34" t="n"/>
-      <c r="H36" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="34" t="n"/>
-      <c r="J36" s="38" t="n"/>
+      <c r="A36" s="70" t="inlineStr">
+        <is>
+          <t>PLANT NUMBERS</t>
+        </is>
+      </c>
+      <c r="B36" s="55" t="n"/>
+      <c r="C36" s="55" t="n"/>
+      <c r="D36" s="55" t="inlineStr">
+        <is>
+          <t>1   2   3</t>
+        </is>
+      </c>
+      <c r="E36" s="56" t="n"/>
+      <c r="F36" s="55" t="n"/>
+      <c r="G36" s="55" t="n"/>
+      <c r="H36" s="56" t="n"/>
+      <c r="I36" s="55" t="n"/>
+      <c r="J36" s="58" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="inlineStr">
-        <is>
-          <t>ENDING INVENTORY</t>
-        </is>
-      </c>
-      <c r="B37" s="34" t="n"/>
-      <c r="C37" s="34" t="n"/>
-      <c r="D37" s="34" t="n"/>
-      <c r="E37" s="35" t="n"/>
-      <c r="F37" s="34" t="n"/>
-      <c r="G37" s="34" t="n"/>
-      <c r="H37" s="35" t="n"/>
-      <c r="I37" s="34" t="n"/>
-      <c r="J37" s="38" t="n"/>
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>0NO. REG. SALES OFFICES</t>
+        </is>
+      </c>
+      <c r="B37" s="55" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" s="55" t="n"/>
+      <c r="D37" s="55" t="n"/>
+      <c r="E37" s="56" t="n">
+        <v>9</v>
+      </c>
+      <c r="F37" s="55" t="n"/>
+      <c r="G37" s="55" t="n"/>
+      <c r="H37" s="56" t="n">
+        <v>9</v>
+      </c>
+      <c r="I37" s="55" t="n"/>
+      <c r="J37" s="58" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="8" t="inlineStr">
         <is>
-          <t>STANDARD UNITS</t>
-        </is>
-      </c>
-      <c r="B38" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="34" t="n"/>
-      <c r="D38" s="34" t="n">
-        <v>40000</v>
-      </c>
-      <c r="E38" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="34" t="n"/>
-      <c r="G38" s="34" t="n">
-        <v>18000</v>
-      </c>
-      <c r="H38" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="34" t="n"/>
-      <c r="J38" s="38" t="n">
-        <v>12500</v>
+          <t>MAX. PRODUCIBLE GRADE</t>
+        </is>
+      </c>
+      <c r="B38" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="55" t="n"/>
+      <c r="D38" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="55" t="n"/>
+      <c r="G38" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="55" t="n"/>
+      <c r="J38" s="58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="inlineStr">
-        <is>
-          <t>GRADE</t>
-        </is>
-      </c>
-      <c r="B39" s="34" t="n">
+      <c r="A39" s="41" t="inlineStr">
+        <is>
+          <t>MAX. OWNED GRADE</t>
+        </is>
+      </c>
+      <c r="B39" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="37" t="n"/>
+      <c r="D39" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="34" t="n"/>
-      <c r="D39" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="34" t="n"/>
-      <c r="G39" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="34" t="n"/>
-      <c r="J39" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="8" t="inlineStr">
-        <is>
-          <t>DELUXE   UNITS</t>
-        </is>
-      </c>
-      <c r="B40" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="34" t="n"/>
-      <c r="D40" s="34" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E40" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="34" t="n"/>
-      <c r="G40" s="34" t="n">
-        <v>9000</v>
-      </c>
-      <c r="H40" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="34" t="n"/>
-      <c r="J40" s="38" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="8" t="inlineStr">
-        <is>
-          <t>GRADE</t>
-        </is>
-      </c>
-      <c r="B41" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="55" t="n"/>
-      <c r="D41" s="55" t="n">
+      <c r="E39" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="37" t="n"/>
+      <c r="G39" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="E41" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="55" t="n"/>
-      <c r="G41" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="55" t="n"/>
-      <c r="J41" s="58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="9" t="inlineStr">
-        <is>
-          <t>0PLANTS BUILT AND BUILDING</t>
-        </is>
-      </c>
-      <c r="B42" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="55" t="n"/>
-      <c r="D42" s="55" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="55" t="n"/>
-      <c r="G42" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="55" t="n"/>
-      <c r="J42" s="58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="8" t="inlineStr">
-        <is>
-          <t>PLANT NUMBERS</t>
-        </is>
-      </c>
-      <c r="B43" s="55" t="n"/>
-      <c r="C43" s="55" t="n"/>
-      <c r="D43" s="55" t="inlineStr">
-        <is>
-          <t>1   2   3</t>
-        </is>
-      </c>
-      <c r="E43" s="56" t="n"/>
-      <c r="F43" s="55" t="n"/>
-      <c r="G43" s="55" t="n"/>
-      <c r="H43" s="56" t="n"/>
-      <c r="I43" s="55" t="n"/>
-      <c r="J43" s="58" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="8" t="inlineStr">
-        <is>
-          <t>0NO. REG. SALES OFFICES</t>
-        </is>
-      </c>
-      <c r="B44" s="55" t="n">
-        <v>4</v>
-      </c>
-      <c r="C44" s="55" t="n"/>
-      <c r="D44" s="55" t="n"/>
-      <c r="E44" s="56" t="n">
-        <v>9</v>
-      </c>
-      <c r="F44" s="55" t="n"/>
-      <c r="G44" s="55" t="n"/>
-      <c r="H44" s="56" t="n">
-        <v>9</v>
-      </c>
-      <c r="I44" s="55" t="n"/>
-      <c r="J44" s="58" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="8" t="inlineStr">
-        <is>
-          <t>MAX. PRODUCIBLE GRADE</t>
-        </is>
-      </c>
-      <c r="B45" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" s="55" t="n"/>
-      <c r="D45" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="55" t="n"/>
-      <c r="G45" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="55" t="n"/>
-      <c r="J45" s="58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="41" t="inlineStr">
-        <is>
-          <t>MAX. OWNED GRADE</t>
-        </is>
-      </c>
-      <c r="B46" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="37" t="n"/>
-      <c r="D46" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="37" t="n"/>
-      <c r="G46" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="37" t="n"/>
-      <c r="J46" s="39" t="n">
+      <c r="H39" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="37" t="n"/>
+      <c r="J39" s="39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4146,16 +3963,16 @@
           <t>FOREIGN CURRENCY STATEMENT</t>
         </is>
       </c>
-      <c r="C2" s="70" t="n"/>
-      <c r="D2" s="70" t="n"/>
-      <c r="E2" s="70" t="n"/>
-      <c r="F2" s="70" t="n"/>
-      <c r="G2" s="70" t="n"/>
-      <c r="H2" s="70" t="n"/>
-      <c r="I2" s="70" t="n"/>
+      <c r="C2" s="71" t="n"/>
+      <c r="D2" s="71" t="n"/>
+      <c r="E2" s="71" t="n"/>
+      <c r="F2" s="71" t="n"/>
+      <c r="G2" s="71" t="n"/>
+      <c r="H2" s="71" t="n"/>
+      <c r="I2" s="71" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="71" t="inlineStr">
+      <c r="A3" s="72" t="inlineStr">
         <is>
           <t>0SUMMARY OF CURRENCY HOLDINGS</t>
         </is>
@@ -4165,28 +3982,28 @@
           <t>U.</t>
         </is>
       </c>
-      <c r="C3" s="72" t="n"/>
+      <c r="C3" s="73" t="n"/>
       <c r="D3" s="59" t="inlineStr">
         <is>
           <t>EC/EU</t>
         </is>
       </c>
-      <c r="E3" s="72" t="n"/>
+      <c r="E3" s="73" t="n"/>
       <c r="F3" s="59" t="inlineStr">
         <is>
           <t>BRA</t>
         </is>
       </c>
-      <c r="G3" s="72" t="n"/>
+      <c r="G3" s="73" t="n"/>
       <c r="H3" s="59" t="inlineStr">
         <is>
           <t>LIECHTENST.</t>
         </is>
       </c>
-      <c r="I3" s="72" t="n"/>
+      <c r="I3" s="73" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="73" t="n"/>
+      <c r="A4" s="74" t="n"/>
       <c r="B4" s="59" t="inlineStr">
         <is>
           <t>UNITS</t>
@@ -4234,28 +4051,28 @@
           <t>US DOLLAR</t>
         </is>
       </c>
-      <c r="B5" s="74" t="n">
+      <c r="B5" s="75" t="n">
         <v>148107</v>
       </c>
-      <c r="C5" s="74" t="n">
+      <c r="C5" s="75" t="n">
         <v>148107</v>
       </c>
-      <c r="D5" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="74" t="n">
+      <c r="D5" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4265,28 +4082,28 @@
           <t>EURO</t>
         </is>
       </c>
-      <c r="B6" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="74" t="n">
+      <c r="B6" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4296,28 +4113,28 @@
           <t>REAL</t>
         </is>
       </c>
-      <c r="B7" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="74" t="n">
+      <c r="B7" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4327,41 +4144,41 @@
           <t>SWISS FRANC</t>
         </is>
       </c>
-      <c r="B8" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="74" t="n">
+      <c r="B8" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="75" t="n">
         <v>20000</v>
       </c>
-      <c r="I8" s="74" t="n">
+      <c r="I8" s="75" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="13" t="n"/>
-      <c r="B9" s="74" t="n"/>
-      <c r="C9" s="74" t="n"/>
-      <c r="D9" s="74" t="n"/>
-      <c r="E9" s="74" t="n"/>
-      <c r="F9" s="74" t="n"/>
-      <c r="G9" s="74" t="n"/>
-      <c r="H9" s="74" t="n"/>
-      <c r="I9" s="74" t="n"/>
+      <c r="B9" s="75" t="n"/>
+      <c r="C9" s="75" t="n"/>
+      <c r="D9" s="75" t="n"/>
+      <c r="E9" s="75" t="n"/>
+      <c r="F9" s="75" t="n"/>
+      <c r="G9" s="75" t="n"/>
+      <c r="H9" s="75" t="n"/>
+      <c r="I9" s="75" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="13" t="inlineStr">
@@ -4369,20 +4186,20 @@
           <t>CASH ON BALANCE SHEET:</t>
         </is>
       </c>
-      <c r="B10" s="74" t="n"/>
-      <c r="C10" s="74" t="n">
+      <c r="B10" s="75" t="n"/>
+      <c r="C10" s="75" t="n">
         <v>148107</v>
       </c>
-      <c r="D10" s="74" t="n"/>
-      <c r="E10" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="74" t="n"/>
-      <c r="G10" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="74" t="n"/>
-      <c r="I10" s="74" t="n">
+      <c r="D10" s="75" t="n"/>
+      <c r="E10" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="75" t="n"/>
+      <c r="G10" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="75" t="n"/>
+      <c r="I10" s="75" t="n">
         <v>20000</v>
       </c>
     </row>
@@ -4463,7 +4280,7 @@
       <c r="E15" s="64" t="n">
         <v>2127000</v>
       </c>
-      <c r="F15" s="75" t="n">
+      <c r="F15" s="76" t="n">
         <v>16612092</v>
       </c>
     </row>
@@ -4485,7 +4302,7 @@
       <c r="E16" s="64" t="n">
         <v>5145000</v>
       </c>
-      <c r="F16" s="75" t="n">
+      <c r="F16" s="76" t="n">
         <v>19481985</v>
       </c>
     </row>
@@ -4507,7 +4324,7 @@
       <c r="E17" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="75" t="n">
+      <c r="F17" s="76" t="n">
         <v>148107</v>
       </c>
     </row>
@@ -4527,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="64" t="n"/>
-      <c r="F18" s="75" t="n">
+      <c r="F18" s="76" t="n">
         <v>1485000</v>
       </c>
     </row>
@@ -4547,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="64" t="n"/>
-      <c r="F19" s="75" t="n">
+      <c r="F19" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4567,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="64" t="n"/>
-      <c r="F20" s="75" t="n">
+      <c r="F20" s="76" t="n">
         <v>1871341</v>
       </c>
     </row>
@@ -4587,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="64" t="n"/>
-      <c r="F21" s="75" t="n">
+      <c r="F21" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4609,7 +4426,7 @@
       <c r="E22" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="75" t="n">
+      <c r="F22" s="76" t="n">
         <v>1030</v>
       </c>
     </row>
@@ -4631,7 +4448,7 @@
       <c r="E23" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="75" t="n">
+      <c r="F23" s="76" t="n">
         <v>50162</v>
       </c>
     </row>
@@ -4647,7 +4464,7 @@
       <c r="E24" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="75" t="n">
+      <c r="F24" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4663,7 +4480,7 @@
       <c r="E25" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F25" s="75" t="n">
+      <c r="F25" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4679,7 +4496,7 @@
       <c r="E26" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F26" s="75" t="n">
+      <c r="F26" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4695,7 +4512,7 @@
       <c r="E27" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F27" s="75" t="n">
+      <c r="F27" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4717,7 +4534,7 @@
       <c r="E28" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F28" s="75" t="n">
+      <c r="F28" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4739,7 +4556,7 @@
       <c r="E29" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F29" s="75" t="n">
+      <c r="F29" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4761,7 +4578,7 @@
       <c r="E30" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="F30" s="76" t="n">
+      <c r="F30" s="77" t="n">
         <v>148107</v>
       </c>
     </row>
@@ -4842,7 +4659,7 @@
       <c r="E35" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F35" s="75" t="n">
+      <c r="F35" s="76" t="n">
         <v>836289</v>
       </c>
     </row>
@@ -4864,7 +4681,7 @@
       <c r="E36" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F36" s="75" t="n">
+      <c r="F36" s="76" t="n">
         <v>836289</v>
       </c>
     </row>
@@ -4886,7 +4703,7 @@
       <c r="E37" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F37" s="75" t="n">
+      <c r="F37" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="64" t="n"/>
-      <c r="F38" s="75" t="n">
+      <c r="F38" s="76" t="n">
         <v>214000</v>
       </c>
     </row>
@@ -4926,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="64" t="n"/>
-      <c r="F39" s="75" t="n">
+      <c r="F39" s="76" t="n">
         <v>321000</v>
       </c>
     </row>
@@ -4946,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="64" t="n"/>
-      <c r="F40" s="75" t="n">
+      <c r="F40" s="76" t="n">
         <v>74254</v>
       </c>
     </row>
@@ -4966,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="64" t="n"/>
-      <c r="F41" s="75" t="n">
+      <c r="F41" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4988,7 +4805,7 @@
       <c r="E42" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F42" s="75" t="n">
+      <c r="F42" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,7 +4827,7 @@
       <c r="E43" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F43" s="75" t="n">
+      <c r="F43" s="76" t="n">
         <v>28266</v>
       </c>
     </row>
@@ -5026,7 +4843,7 @@
       <c r="E44" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F44" s="75" t="n">
+      <c r="F44" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5042,7 +4859,7 @@
       <c r="E45" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F45" s="75" t="n">
+      <c r="F45" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5058,7 +4875,7 @@
       <c r="E46" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F46" s="75" t="n">
+      <c r="F46" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5074,7 +4891,7 @@
       <c r="E47" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F47" s="75" t="n">
+      <c r="F47" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5096,7 +4913,7 @@
       <c r="E48" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F48" s="75" t="n">
+      <c r="F48" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5118,7 +4935,7 @@
       <c r="E49" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F49" s="75" t="n">
+      <c r="F49" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,7 +4957,7 @@
       <c r="E50" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="F50" s="76" t="n">
+      <c r="F50" s="77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5221,7 +5038,7 @@
       <c r="E55" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F55" s="75" t="n">
+      <c r="F55" s="76" t="n">
         <v>1613686</v>
       </c>
     </row>
@@ -5243,7 +5060,7 @@
       <c r="E56" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F56" s="75" t="n">
+      <c r="F56" s="76" t="n">
         <v>1613686</v>
       </c>
     </row>
@@ -5265,7 +5082,7 @@
       <c r="E57" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F57" s="75" t="n">
+      <c r="F57" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5285,7 +5102,7 @@
         <v>1059000</v>
       </c>
       <c r="E58" s="64" t="n"/>
-      <c r="F58" s="75" t="n">
+      <c r="F58" s="76" t="n">
         <v>1059000</v>
       </c>
     </row>
@@ -5305,7 +5122,7 @@
         <v>1412000</v>
       </c>
       <c r="E59" s="64" t="n"/>
-      <c r="F59" s="75" t="n">
+      <c r="F59" s="76" t="n">
         <v>1412000</v>
       </c>
     </row>
@@ -5325,7 +5142,7 @@
         <v>489582</v>
       </c>
       <c r="E60" s="64" t="n"/>
-      <c r="F60" s="75" t="n">
+      <c r="F60" s="76" t="n">
         <v>489582</v>
       </c>
     </row>
@@ -5345,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="64" t="n"/>
-      <c r="F61" s="75" t="n">
+      <c r="F61" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5367,7 +5184,7 @@
       <c r="E62" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F62" s="75" t="n">
+      <c r="F62" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5389,7 +5206,7 @@
       <c r="E63" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F63" s="75" t="n">
+      <c r="F63" s="76" t="n">
         <v>68261</v>
       </c>
     </row>
@@ -5405,7 +5222,7 @@
       <c r="E64" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F64" s="75" t="n">
+      <c r="F64" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5421,7 +5238,7 @@
       <c r="E65" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F65" s="75" t="n">
+      <c r="F65" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5437,7 +5254,7 @@
       <c r="E66" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F66" s="75" t="n">
+      <c r="F66" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5453,7 +5270,7 @@
       <c r="E67" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F67" s="75" t="n">
+      <c r="F67" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5475,7 +5292,7 @@
       <c r="E68" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F68" s="75" t="n">
+      <c r="F68" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5497,7 +5314,7 @@
       <c r="E69" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F69" s="75" t="n">
+      <c r="F69" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5519,7 +5336,7 @@
       <c r="E70" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="F70" s="76" t="n">
+      <c r="F70" s="77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5600,7 +5417,7 @@
       <c r="E75" s="64" t="n">
         <v>6410453</v>
       </c>
-      <c r="F75" s="75" t="n">
+      <c r="F75" s="76" t="n">
         <v>6410453</v>
       </c>
     </row>
@@ -5622,7 +5439,7 @@
       <c r="E76" s="64" t="n">
         <v>3392453</v>
       </c>
-      <c r="F76" s="75" t="n">
+      <c r="F76" s="76" t="n">
         <v>3392453</v>
       </c>
     </row>
@@ -5644,7 +5461,7 @@
       <c r="E77" s="64" t="n">
         <v>20000</v>
       </c>
-      <c r="F77" s="75" t="n">
+      <c r="F77" s="76" t="n">
         <v>20000</v>
       </c>
     </row>
@@ -5664,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="64" t="n"/>
-      <c r="F78" s="75" t="n">
+      <c r="F78" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5684,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="64" t="n"/>
-      <c r="F79" s="75" t="n">
+      <c r="F79" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5706,7 +5523,7 @@
       <c r="E80" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F80" s="75" t="n">
+      <c r="F80" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5726,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="64" t="n"/>
-      <c r="F81" s="75" t="n">
+      <c r="F81" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5748,7 +5565,7 @@
       <c r="E82" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F82" s="75" t="n">
+      <c r="F82" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5770,7 +5587,7 @@
       <c r="E83" s="64" t="n">
         <v>434596</v>
       </c>
-      <c r="F83" s="75" t="n">
+      <c r="F83" s="76" t="n">
         <v>434596</v>
       </c>
     </row>
@@ -5786,7 +5603,7 @@
       <c r="E84" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F84" s="75" t="n">
+      <c r="F84" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5802,7 +5619,7 @@
       <c r="E85" s="64" t="n">
         <v>3360165</v>
       </c>
-      <c r="F85" s="75" t="n">
+      <c r="F85" s="76" t="n">
         <v>3360165</v>
       </c>
     </row>
@@ -5818,7 +5635,7 @@
       <c r="E86" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F86" s="75" t="n">
+      <c r="F86" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5834,7 +5651,7 @@
       <c r="E87" s="64" t="n">
         <v>1000000</v>
       </c>
-      <c r="F87" s="75" t="n">
+      <c r="F87" s="76" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -5856,7 +5673,7 @@
       <c r="E88" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F88" s="75" t="n">
+      <c r="F88" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5878,7 +5695,7 @@
       <c r="E89" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F89" s="75" t="n">
+      <c r="F89" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5900,7 +5717,7 @@
       <c r="E90" s="67" t="n">
         <v>20000</v>
       </c>
-      <c r="F90" s="76" t="n">
+      <c r="F90" s="77" t="n">
         <v>20000</v>
       </c>
     </row>
@@ -8536,25 +8353,25 @@
           <t>U.S.</t>
         </is>
       </c>
-      <c r="C3" s="77" t="n"/>
-      <c r="D3" s="77" t="n"/>
-      <c r="E3" s="72" t="n"/>
+      <c r="C3" s="78" t="n"/>
+      <c r="D3" s="78" t="n"/>
+      <c r="E3" s="73" t="n"/>
       <c r="F3" s="59" t="inlineStr">
         <is>
           <t>EC/EU</t>
         </is>
       </c>
-      <c r="G3" s="77" t="n"/>
-      <c r="H3" s="77" t="n"/>
-      <c r="I3" s="72" t="n"/>
+      <c r="G3" s="78" t="n"/>
+      <c r="H3" s="78" t="n"/>
+      <c r="I3" s="73" t="n"/>
       <c r="J3" s="59" t="inlineStr">
         <is>
           <t>BRAZIL</t>
         </is>
       </c>
-      <c r="K3" s="77" t="n"/>
-      <c r="L3" s="77" t="n"/>
-      <c r="M3" s="72" t="n"/>
+      <c r="K3" s="78" t="n"/>
+      <c r="L3" s="78" t="n"/>
+      <c r="M3" s="73" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="13" t="n"/>
@@ -8563,37 +8380,37 @@
           <t>CHIP</t>
         </is>
       </c>
-      <c r="C4" s="72" t="n"/>
+      <c r="C4" s="73" t="n"/>
       <c r="D4" s="59" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
-      <c r="E4" s="72" t="n"/>
+      <c r="E4" s="73" t="n"/>
       <c r="F4" s="59" t="inlineStr">
         <is>
           <t>CHIP</t>
         </is>
       </c>
-      <c r="G4" s="72" t="n"/>
+      <c r="G4" s="73" t="n"/>
       <c r="H4" s="59" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
-      <c r="I4" s="72" t="n"/>
+      <c r="I4" s="73" t="n"/>
       <c r="J4" s="59" t="inlineStr">
         <is>
           <t>CHIP</t>
         </is>
       </c>
-      <c r="K4" s="72" t="n"/>
+      <c r="K4" s="73" t="n"/>
       <c r="L4" s="59" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
-      <c r="M4" s="72" t="n"/>
+      <c r="M4" s="73" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="13" t="n"/>
